--- a/New folder/10-2019/03-09-2019.xlsx
+++ b/New folder/10-2019/03-09-2019.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$L$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Cover!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -266,9 +266,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="181" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="182" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -878,7 +878,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -983,10 +983,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1083,24 +1083,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="11" fontId="16" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="16" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1118,6 +1118,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="16" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1694,19 +1700,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J19" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J19" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J19"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Column1" dataDxfId="11"/>
-    <tableColumn id="2" name="Column2" dataDxfId="10"/>
-    <tableColumn id="3" name="Column3" dataDxfId="9"/>
-    <tableColumn id="4" name="Column4" dataDxfId="8"/>
-    <tableColumn id="5" name="Column5" dataDxfId="7"/>
-    <tableColumn id="6" name="Column6" dataDxfId="6"/>
-    <tableColumn id="7" name="Column7" dataDxfId="5"/>
-    <tableColumn id="8" name="Column8" dataDxfId="4"/>
-    <tableColumn id="9" name="Column9" dataDxfId="3"/>
-    <tableColumn id="10" name="Column10" dataDxfId="2"/>
+    <tableColumn id="1" name="Column1" dataDxfId="9"/>
+    <tableColumn id="2" name="Column2" dataDxfId="8"/>
+    <tableColumn id="3" name="Column3" dataDxfId="7"/>
+    <tableColumn id="4" name="Column4" dataDxfId="6"/>
+    <tableColumn id="5" name="Column5" dataDxfId="5"/>
+    <tableColumn id="6" name="Column6" dataDxfId="4"/>
+    <tableColumn id="7" name="Column7" dataDxfId="3"/>
+    <tableColumn id="8" name="Column8" dataDxfId="2"/>
+    <tableColumn id="9" name="Column9" dataDxfId="1"/>
+    <tableColumn id="10" name="Column10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2477,10 +2483,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K64787"/>
+  <dimension ref="A1:K64786"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A3" sqref="A3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2517,149 +2523,149 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:11" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A2" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="K2" s="82" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="75"/>
-    </row>
-    <row r="4" spans="1:11" s="46" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="54" t="s">
+    <row r="3" spans="1:11" s="46" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A3" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E3" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F3" s="55" t="s">
         <v>58</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="46" customFormat="1" ht="15.75" thickTop="1">
+      <c r="A4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="46" customFormat="1" ht="15.75" thickTop="1">
-      <c r="A5" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>59</v>
+    <row r="5" spans="1:11" s="46" customFormat="1" ht="45">
+      <c r="A5" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="46" customFormat="1" ht="45">
-      <c r="A6" s="58" t="s">
-        <v>47</v>
-      </c>
+    <row r="6" spans="1:11" s="46" customFormat="1" ht="15">
+      <c r="A6" s="58"/>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
-      <c r="D6" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="59" t="s">
-        <v>41</v>
-      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="59"/>
     </row>
     <row r="7" spans="1:11" s="46" customFormat="1" ht="15">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -2672,7 +2678,7 @@
       <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:11" s="46" customFormat="1" ht="15">
-      <c r="A8" s="61"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
@@ -2684,34 +2690,34 @@
       <c r="J8" s="43"/>
       <c r="K8" s="59"/>
     </row>
-    <row r="9" spans="1:11" s="46" customFormat="1" ht="15">
+    <row r="9" spans="1:11" ht="15">
       <c r="A9" s="58"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="50"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
       <c r="K9" s="59"/>
     </row>
     <row r="10" spans="1:11" ht="15">
-      <c r="A10" s="58"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
-      <c r="G10" s="50"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="50"/>
       <c r="I10" s="43"/>
       <c r="J10" s="43"/>
       <c r="K10" s="59"/>
     </row>
     <row r="11" spans="1:11" ht="15">
-      <c r="A11" s="61"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
@@ -2737,7 +2743,7 @@
       <c r="K12" s="59"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="A13" s="58"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
@@ -2750,7 +2756,7 @@
       <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="61"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
@@ -2776,7 +2782,7 @@
       <c r="K15" s="59"/>
     </row>
     <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="58"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
@@ -2789,7 +2795,7 @@
       <c r="K16" s="59"/>
     </row>
     <row r="17" spans="1:11" ht="15">
-      <c r="A17" s="61"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="43"/>
@@ -2853,38 +2859,14 @@
       <c r="J21" s="43"/>
       <c r="K21" s="59"/>
     </row>
-    <row r="22" spans="1:11" ht="15">
-      <c r="A22" s="58"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="59"/>
-    </row>
-    <row r="64787" spans="4:4" ht="15">
-      <c r="D64787" s="43" t="s">
+    <row r="64786" spans="4:4" ht="15">
+      <c r="D64786" s="43" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="C2:C3"/>
+  <mergeCells count="1">
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="41" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2937,52 +2919,52 @@
       <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="72" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickTop="1">
       <c r="A5" s="54" t="s">
@@ -3171,18 +3153,18 @@
     <row r="11" spans="1:11" ht="13.5" thickTop="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="I1:K2"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3586,17 +3568,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
